--- a/biology/Botanique/Germandrée_des_montagnes/Germandrée_des_montagnes.xlsx
+++ b/biology/Botanique/Germandrée_des_montagnes/Germandrée_des_montagnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e_des_montagnes</t>
+          <t>Germandrée_des_montagnes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Teucrium montanum
 La Germandrée des montagnes (Teucrium montanum) est une plante herbacée thermophile de la famille des Lamiacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e_des_montagnes</t>
+          <t>Germandrée_des_montagnes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,51 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Germandrée des montagnes est une plante vivace, de 5 à 25 cm de haut, au port prostré, gazonnante, formant des touffes circulaires. La tige est grêle, tomenteuse et blanchâtre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Germandrée des montagnes est une plante vivace, de 5 à 25 cm de haut, au port prostré, gazonnante, formant des touffes circulaires. La tige est grêle, tomenteuse et blanchâtre.
 Les feuilles sont atténuées en un court pétiole, de forme linaire ou lancéolée oblongue, entières, à bord enroulé, uninervées, coriaces, vertes dessus et blanches tomenteuses dessous. Elles mesurent 1 à 2 cm.
 Les fleurs sont d'un blanc jaunâtre. Elles sont réunies en têtes terminales, hémisphériques. Le calice est glabre, vert pâle, pourvu de 5 dents égales.
 La floraison va de mai à août.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Germandrée_des_montagnes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Germandr%C3%A9e_des_montagnes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc
 Période de floraison : juin-septembre
 Inflorescence : cyme capituliforme
@@ -537,31 +586,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Germandr%C3%A9e_des_montagnes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Germandrée_des_montagnes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Germandr%C3%A9e_des_montagnes</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve dans une grande partie de la France, en Europe centrale et méridionale, en Algérie, en Asie mineure (Turquie).
 La Germandrée des montagnes est une espèce thermophile, poussant sur les sols secs. Elle se développe sur les rochers et coteaux calcaires, falaises, pelouses.
